--- a/biology/Médecine/Hôpital_Stanislas/Hôpital_Stanislas.xlsx
+++ b/biology/Médecine/Hôpital_Stanislas/Hôpital_Stanislas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Stanislas</t>
+          <t>Hôpital_Stanislas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Stanislas est un monument historique situé à Wissembourg, dans le département français du Bas-Rhin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Stanislas</t>
+          <t>Hôpital_Stanislas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bâtiment est situé au 7, rue Stanislas à Wissembourg.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Stanislas</t>
+          <t>Hôpital_Stanislas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1719 à 1725, le roi de Pologne en exil Stanislas Leszczynski vit avec sa famille à Wissembourg (après quatre années passés à Deux-Ponts), dans une maison prêtée par le bailli Weber, la « maison Weber », par la suite nommée « palais Stanislas ». C'est là que les Leszczynski apprennent en 1725 que leur fille Marie a été choisie pour épouser le roi de France, Louis XV.
-La palais Stanislas devient un hôpital au XXe siècle. Il a servi d'hôpital jusqu'en 1973, puis de maison de retraite jusqu'au début des années 2000. Il a été vendu en 2015 à des particuliers comme résidence[1].
-L'édifice fait depuis 1929[2] l'objet d'un classement au titre des monuments historiques.
+La palais Stanislas devient un hôpital au XXe siècle. Il a servi d'hôpital jusqu'en 1973, puis de maison de retraite jusqu'au début des années 2000. Il a été vendu en 2015 à des particuliers comme résidence.
+L'édifice fait depuis 1929 l'objet d'un classement au titre des monuments historiques.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Stanislas</t>
+          <t>Hôpital_Stanislas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
